--- a/REGULAR/OJT/OCAMPO, ORLANDO.xlsx
+++ b/REGULAR/OJT/OCAMPO, ORLANDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342F0DDD-5183-4C09-9E63-DD4CC5E34F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1102,7 +1101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1977,7 +1976,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2019,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2083,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2143,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2209,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2272,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2370,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2429,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2494,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2537,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2612,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2798,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2864,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2922,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +2988,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3044,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3119,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3162,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +3228,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3285,7 +3284,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3382,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3445,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +3494,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3512,25 +3511,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K560" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K561" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3542,13 +3541,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3557,14 +3556,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3868,7 +3867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3878,7 +3877,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3886,34 +3885,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K560"/>
+  <dimension ref="A2:K561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A539" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A539" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K548" sqref="K548"/>
+      <selection pane="bottomLeft" activeCell="I548" sqref="I548"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3954,7 +3953,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3976,7 +3975,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3984,7 +3983,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3997,7 +3996,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4014,7 +4013,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4068,12 +4067,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>135.24799999999999</v>
+        <v>134.24799999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -4095,7 +4094,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35947</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4141,7 +4140,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35977</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>35977</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>45</v>
@@ -4189,7 +4188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36008</v>
       </c>
@@ -4213,7 +4212,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36039</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>36042</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
@@ -4259,7 +4258,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36069</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36100</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>36101</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>55</v>
@@ -4331,7 +4330,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36130</v>
       </c>
@@ -4355,7 +4354,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>43</v>
       </c>
@@ -4373,7 +4372,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36161</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36192</v>
       </c>
@@ -4417,7 +4416,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36220</v>
       </c>
@@ -4437,7 +4436,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36251</v>
       </c>
@@ -4457,7 +4456,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36281</v>
       </c>
@@ -4477,7 +4476,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36312</v>
       </c>
@@ -4497,7 +4496,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36342</v>
       </c>
@@ -4517,7 +4516,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36373</v>
       </c>
@@ -4537,7 +4536,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36404</v>
       </c>
@@ -4557,7 +4556,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36434</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36465</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36495</v>
       </c>
@@ -4631,7 +4630,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>44</v>
       </c>
@@ -4649,7 +4648,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36526</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36557</v>
       </c>
@@ -4693,7 +4692,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36586</v>
       </c>
@@ -4713,7 +4712,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36617</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36647</v>
       </c>
@@ -4753,7 +4752,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36678</v>
       </c>
@@ -4773,7 +4772,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36708</v>
       </c>
@@ -4793,7 +4792,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36739</v>
       </c>
@@ -4813,7 +4812,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36770</v>
       </c>
@@ -4833,7 +4832,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36800</v>
       </c>
@@ -4853,7 +4852,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36831</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>66</v>
@@ -4901,7 +4900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36861</v>
       </c>
@@ -4925,7 +4924,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>64</v>
       </c>
@@ -4943,7 +4942,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36892</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>36920</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>70</v>
@@ -4989,7 +4988,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36923</v>
       </c>
@@ -5013,7 +5012,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36951</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>36962</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>47</v>
@@ -5061,7 +5060,7 @@
         <v>36979</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>72</v>
@@ -5081,7 +5080,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="49"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36982</v>
       </c>
@@ -5105,7 +5104,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37012</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>37029</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -5153,7 +5152,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37043</v>
       </c>
@@ -5177,7 +5176,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37073</v>
       </c>
@@ -5203,7 +5202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>52</v>
@@ -5225,7 +5224,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -5247,7 +5246,7 @@
         <v>37091</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37104</v>
       </c>
@@ -5271,7 +5270,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37135</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>37154</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>78</v>
@@ -5317,7 +5316,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37165</v>
       </c>
@@ -5341,7 +5340,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37196</v>
       </c>
@@ -5365,7 +5364,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37226</v>
       </c>
@@ -5389,7 +5388,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>83</v>
@@ -5409,7 +5408,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -5427,7 +5426,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37257</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>84</v>
@@ -5475,7 +5474,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>85</v>
@@ -5495,7 +5494,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>57</v>
@@ -5515,7 +5514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>62</v>
@@ -5535,7 +5534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37288</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>37314</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>90</v>
@@ -5581,7 +5580,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="49"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37316</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>37326</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>74</v>
@@ -5629,7 +5628,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>91</v>
@@ -5649,7 +5648,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37347</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>37349</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>93</v>
@@ -5695,7 +5694,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37377</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>37391</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -5743,7 +5742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>93</v>
@@ -5763,7 +5762,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37408</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>37431</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>95</v>
@@ -5809,7 +5808,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37438</v>
       </c>
@@ -5835,7 +5834,7 @@
         <v>37449</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37469</v>
       </c>
@@ -5855,7 +5854,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37500</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37530</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>37532</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>97</v>
@@ -5925,7 +5924,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37561</v>
       </c>
@@ -5945,7 +5944,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37591</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>37599</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>98</v>
       </c>
@@ -5989,7 +5988,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37622</v>
       </c>
@@ -6013,7 +6012,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37653</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>74</v>
@@ -6061,7 +6060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>74</v>
@@ -6083,7 +6082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>47</v>
@@ -6105,7 +6104,7 @@
         <v>37673</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>52</v>
@@ -6127,7 +6126,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37681</v>
       </c>
@@ -6151,7 +6150,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37712</v>
       </c>
@@ -6171,7 +6170,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37742</v>
       </c>
@@ -6195,7 +6194,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37773</v>
       </c>
@@ -6221,7 +6220,7 @@
         <v>37796</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>107</v>
@@ -6241,7 +6240,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37803</v>
       </c>
@@ -6265,7 +6264,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37834</v>
       </c>
@@ -6289,7 +6288,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37865</v>
       </c>
@@ -6313,7 +6312,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37895</v>
       </c>
@@ -6337,7 +6336,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37926</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>37938</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>110</v>
@@ -6383,7 +6382,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="49"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37956</v>
       </c>
@@ -6407,7 +6406,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>111</v>
       </c>
@@ -6425,7 +6424,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -6449,7 +6448,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38018</v>
       </c>
@@ -6473,7 +6472,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38047</v>
       </c>
@@ -6497,7 +6496,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38078</v>
       </c>
@@ -6517,7 +6516,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38108</v>
       </c>
@@ -6541,7 +6540,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38139</v>
       </c>
@@ -6565,7 +6564,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38169</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38200</v>
       </c>
@@ -6615,7 +6614,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38231</v>
       </c>
@@ -6639,7 +6638,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38261</v>
       </c>
@@ -6663,7 +6662,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38292</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38322</v>
       </c>
@@ -6713,7 +6712,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>112</v>
       </c>
@@ -6731,7 +6730,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38353</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>45</v>
@@ -6777,7 +6776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>66</v>
@@ -6799,7 +6798,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38384</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38412</v>
       </c>
@@ -6845,7 +6844,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38443</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>38448</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38473</v>
       </c>
@@ -6891,7 +6890,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38504</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38534</v>
       </c>
@@ -6937,7 +6936,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38565</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>38595</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38596</v>
       </c>
@@ -6989,7 +6988,7 @@
         <v>38609</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7009,7 +7008,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>47</v>
@@ -7031,7 +7030,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38626</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>47</v>
@@ -7079,7 +7078,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38657</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>38671</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>47</v>
@@ -7127,7 +7126,7 @@
         <v>38702</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38687</v>
       </c>
@@ -7151,7 +7150,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>128</v>
       </c>
@@ -7169,7 +7168,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38718</v>
       </c>
@@ -7189,7 +7188,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38749</v>
       </c>
@@ -7209,7 +7208,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38777</v>
       </c>
@@ -7229,7 +7228,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38808</v>
       </c>
@@ -7249,7 +7248,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38838</v>
       </c>
@@ -7269,7 +7268,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38869</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38899</v>
       </c>
@@ -7315,7 +7314,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38930</v>
       </c>
@@ -7335,7 +7334,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38961</v>
       </c>
@@ -7355,7 +7354,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38991</v>
       </c>
@@ -7379,7 +7378,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39022</v>
       </c>
@@ -7399,7 +7398,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39052</v>
       </c>
@@ -7419,7 +7418,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="48" t="s">
         <v>129</v>
       </c>
@@ -7437,7 +7436,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>39083</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>52</v>
@@ -7481,7 +7480,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39114</v>
       </c>
@@ -7501,7 +7500,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39142</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>39164</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39173</v>
       </c>
@@ -7547,7 +7546,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39203</v>
       </c>
@@ -7567,7 +7566,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>39234</v>
       </c>
@@ -7587,7 +7586,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39264</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>132</v>
@@ -7633,7 +7632,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39295</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>39289</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7681,7 +7680,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>74</v>
@@ -7703,7 +7702,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39326</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>39343</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>57</v>
@@ -7749,7 +7748,7 @@
         <v>39344</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>47</v>
@@ -7771,7 +7770,7 @@
         <v>39335</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39356</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>39359</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39387</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39417</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
         <v>137</v>
       </c>
@@ -7867,7 +7866,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39448</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>149</v>
@@ -7913,7 +7912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>84</v>
@@ -7935,7 +7934,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>47</v>
@@ -7957,7 +7956,7 @@
         <v>39503</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39479</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>84</v>
@@ -8005,7 +8004,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>74</v>
@@ -8027,7 +8026,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39508</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>54</v>
@@ -8075,7 +8074,7 @@
         <v>39525</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>59</v>
@@ -8097,7 +8096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>47</v>
@@ -8119,7 +8118,7 @@
         <v>39524</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39539</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39569</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="15" t="s">
         <v>52</v>
@@ -8193,7 +8192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39600</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>84</v>
@@ -8241,7 +8240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>47</v>
@@ -8263,7 +8262,7 @@
         <v>39629</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>160</v>
@@ -8283,7 +8282,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39630</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>84</v>
@@ -8331,7 +8330,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>47</v>
@@ -8353,7 +8352,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>159</v>
@@ -8373,7 +8372,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39661</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>163</v>
@@ -8419,7 +8418,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>164</v>
@@ -8439,7 +8438,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39692</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>47</v>
@@ -8487,7 +8486,7 @@
         <v>39707</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>165</v>
@@ -8507,7 +8506,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39722</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>65</v>
@@ -8555,7 +8554,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>168</v>
@@ -8575,7 +8574,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39753</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>39758</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>74</v>
@@ -8623,7 +8622,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>47</v>
@@ -8645,7 +8644,7 @@
         <v>39770</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>84</v>
@@ -8667,7 +8666,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>47</v>
@@ -8689,7 +8688,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>116</v>
@@ -8709,7 +8708,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39783</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>173</v>
@@ -8755,7 +8754,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="48" t="s">
         <v>138</v>
       </c>
@@ -8773,7 +8772,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39814</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>52</v>
@@ -8819,7 +8818,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>74</v>
@@ -8841,7 +8840,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>149</v>
@@ -8861,7 +8860,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>52</v>
@@ -8883,7 +8882,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>175</v>
@@ -8903,7 +8902,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39845</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -8951,7 +8950,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>84</v>
@@ -8971,7 +8970,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>180</v>
@@ -8991,7 +8990,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39873</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>183</v>
@@ -9037,7 +9036,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>184</v>
@@ -9057,7 +9056,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39904</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>47</v>
@@ -9103,7 +9102,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>52</v>
@@ -9125,7 +9124,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>187</v>
@@ -9145,7 +9144,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39934</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>39948</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>189</v>
@@ -9191,7 +9190,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>183</v>
@@ -9213,7 +9212,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39965</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>84</v>
@@ -9261,7 +9260,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>118</v>
@@ -9281,7 +9280,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39995</v>
       </c>
@@ -9307,7 +9306,7 @@
         <v>39995</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>52</v>
@@ -9329,7 +9328,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>65</v>
@@ -9351,7 +9350,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>193</v>
@@ -9371,7 +9370,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>40026</v>
       </c>
@@ -9395,7 +9394,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>40057</v>
       </c>
@@ -9421,7 +9420,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -9443,7 +9442,7 @@
         <v>40078</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>47</v>
@@ -9465,7 +9464,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>81</v>
@@ -9487,7 +9486,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>197</v>
@@ -9507,7 +9506,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>40087</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>74</v>
@@ -9555,7 +9554,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>74</v>
@@ -9577,7 +9576,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>81</v>
@@ -9599,7 +9598,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>199</v>
@@ -9619,7 +9618,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>40118</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>203</v>
@@ -9663,7 +9662,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>74</v>
@@ -9685,7 +9684,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40148</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>205</v>
@@ -9731,7 +9730,7 @@
         <v>40182</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>206</v>
@@ -9751,7 +9750,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
         <v>139</v>
       </c>
@@ -9769,7 +9768,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40179</v>
       </c>
@@ -9793,7 +9792,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>45</v>
@@ -9813,7 +9812,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>47</v>
@@ -9835,7 +9834,7 @@
         <v>40193</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>65</v>
@@ -9857,7 +9856,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>207</v>
@@ -9877,7 +9876,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40210</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>47</v>
@@ -9925,7 +9924,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>209</v>
@@ -9945,7 +9944,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40238</v>
       </c>
@@ -9971,7 +9970,7 @@
         <v>40242</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>47</v>
@@ -9993,7 +9992,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>210</v>
@@ -10013,7 +10012,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>40269</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>40282</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>211</v>
@@ -10059,7 +10058,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40299</v>
       </c>
@@ -10083,7 +10082,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40330</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>213</v>
@@ -10129,7 +10128,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>40360</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>40368</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>45</v>
@@ -10175,7 +10174,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>47</v>
@@ -10197,7 +10196,7 @@
         <v>40379</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>47</v>
@@ -10219,7 +10218,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>47</v>
@@ -10241,7 +10240,7 @@
         <v>40388</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>214</v>
@@ -10261,7 +10260,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40391</v>
       </c>
@@ -10287,7 +10286,7 @@
         <v>40403</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>47</v>
@@ -10309,7 +10308,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>216</v>
@@ -10329,7 +10328,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40422</v>
       </c>
@@ -10353,7 +10352,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>40452</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>47</v>
@@ -10401,7 +10400,7 @@
         <v>40462</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>54</v>
@@ -10423,7 +10422,7 @@
         <v>40466</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>218</v>
@@ -10443,7 +10442,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>40483</v>
       </c>
@@ -10467,7 +10466,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40513</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>205</v>
@@ -10513,7 +10512,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>221</v>
@@ -10533,7 +10532,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="48" t="s">
         <v>140</v>
       </c>
@@ -10551,7 +10550,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>40544</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>222</v>
@@ -10597,7 +10596,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>40575</v>
       </c>
@@ -10621,7 +10620,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40603</v>
       </c>
@@ -10645,7 +10644,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40634</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>40645</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>70</v>
@@ -10691,7 +10690,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40664</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>226</v>
@@ -10737,7 +10736,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>40695</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>46</v>
@@ -10783,7 +10782,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40725</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>40744</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>227</v>
@@ -10829,7 +10828,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40756</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>47</v>
@@ -10877,7 +10876,7 @@
         <v>40763</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>228</v>
@@ -10897,7 +10896,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40787</v>
       </c>
@@ -10921,7 +10920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>47</v>
@@ -10943,7 +10942,7 @@
         <v>40809</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>47</v>
@@ -10965,7 +10964,7 @@
         <v>40813</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -10985,7 +10984,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40817</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>40834</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>231</v>
@@ -11031,7 +11030,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>40848</v>
       </c>
@@ -11055,7 +11054,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40878</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>40893</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>233</v>
@@ -11101,7 +11100,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="49"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="48" t="s">
         <v>141</v>
       </c>
@@ -11119,7 +11118,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>40909</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>52</v>
@@ -11165,7 +11164,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>47</v>
@@ -11187,7 +11186,7 @@
         <v>40934</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>234</v>
@@ -11207,7 +11206,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>40940</v>
       </c>
@@ -11231,7 +11230,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40969</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>40974</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>54</v>
@@ -11279,7 +11278,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>74</v>
@@ -11301,7 +11300,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>236</v>
@@ -11321,7 +11320,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41000</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>239</v>
@@ -11367,7 +11366,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41030</v>
       </c>
@@ -11391,7 +11390,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>47</v>
@@ -11413,7 +11412,7 @@
         <v>41058</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>241</v>
@@ -11433,7 +11432,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41061</v>
       </c>
@@ -11459,7 +11458,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>242</v>
@@ -11479,7 +11478,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41091</v>
       </c>
@@ -11505,7 +11504,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>47</v>
@@ -11527,7 +11526,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>244</v>
@@ -11547,7 +11546,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>41122</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>246</v>
@@ -11595,7 +11594,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>247</v>
@@ -11615,7 +11614,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41153</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>57</v>
@@ -11661,7 +11660,7 @@
         <v>41171</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -11683,7 +11682,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>250</v>
@@ -11705,7 +11704,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>251</v>
@@ -11725,7 +11724,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41183</v>
       </c>
@@ -11751,7 +11750,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>41214</v>
       </c>
@@ -11775,7 +11774,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>41244</v>
       </c>
@@ -11799,7 +11798,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
         <v>142</v>
       </c>
@@ -11817,7 +11816,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>41275</v>
       </c>
@@ -11843,7 +11842,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>205</v>
@@ -11863,7 +11862,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11883,7 +11882,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -11905,7 +11904,7 @@
         <v>41303</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>256</v>
@@ -11925,7 +11924,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41306</v>
       </c>
@@ -11951,7 +11950,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>258</v>
@@ -11971,7 +11970,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41334</v>
       </c>
@@ -11997,7 +11996,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>260</v>
@@ -12016,12 +12015,12 @@
       <c r="H363" s="39"/>
       <c r="I363" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>135.24799999999999</v>
+        <v>134.24799999999999</v>
       </c>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>41365</v>
       </c>
@@ -12045,7 +12044,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>41395</v>
       </c>
@@ -12069,7 +12068,7 @@
         <v>41386</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>52</v>
@@ -12091,7 +12090,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>132</v>
@@ -12113,7 +12112,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>107</v>
@@ -12133,7 +12132,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>41426</v>
       </c>
@@ -12159,7 +12158,7 @@
         <v>41442</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>264</v>
@@ -12179,7 +12178,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>41456</v>
       </c>
@@ -12203,7 +12202,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>41487</v>
       </c>
@@ -12229,7 +12228,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>266</v>
@@ -12249,7 +12248,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41518</v>
       </c>
@@ -12275,7 +12274,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>267</v>
@@ -12295,7 +12294,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>41548</v>
       </c>
@@ -12321,7 +12320,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>268</v>
@@ -12341,7 +12340,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41579</v>
       </c>
@@ -12365,7 +12364,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41609</v>
       </c>
@@ -12389,7 +12388,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>271</v>
@@ -12409,7 +12408,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="48" t="s">
         <v>143</v>
       </c>
@@ -12427,7 +12426,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41640</v>
       </c>
@@ -12451,7 +12450,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>41671</v>
       </c>
@@ -12477,7 +12476,7 @@
         <v>41684</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>57</v>
@@ -12497,7 +12496,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>113</v>
@@ -12517,7 +12516,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41699</v>
       </c>
@@ -12541,7 +12540,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>41730</v>
       </c>
@@ -12567,7 +12566,7 @@
         <v>41737</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>275</v>
@@ -12587,7 +12586,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>41760</v>
       </c>
@@ -12613,7 +12612,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>57</v>
@@ -12633,7 +12632,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>276</v>
@@ -12653,7 +12652,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41791</v>
       </c>
@@ -12679,7 +12678,7 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>278</v>
@@ -12699,7 +12698,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41821</v>
       </c>
@@ -12725,7 +12724,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>279</v>
@@ -12745,7 +12744,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41852</v>
       </c>
@@ -12769,7 +12768,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41883</v>
       </c>
@@ -12793,7 +12792,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>281</v>
@@ -12813,7 +12812,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41913</v>
       </c>
@@ -12837,7 +12836,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41944</v>
       </c>
@@ -12863,7 +12862,7 @@
         <v>41956</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>284</v>
@@ -12883,7 +12882,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>41974</v>
       </c>
@@ -12907,7 +12906,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="48" t="s">
         <v>144</v>
       </c>
@@ -12925,7 +12924,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42005</v>
       </c>
@@ -12949,7 +12948,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>265</v>
@@ -12969,7 +12968,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42036</v>
       </c>
@@ -12993,7 +12992,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42064</v>
       </c>
@@ -13019,7 +13018,7 @@
         <v>42089</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>288</v>
@@ -13039,7 +13038,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>42095</v>
       </c>
@@ -13063,7 +13062,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42125</v>
       </c>
@@ -13089,7 +13088,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>290</v>
@@ -13109,7 +13108,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>42156</v>
       </c>
@@ -13133,7 +13132,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42186</v>
       </c>
@@ -13157,7 +13156,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>293</v>
@@ -13177,7 +13176,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>42217</v>
       </c>
@@ -13201,7 +13200,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42248</v>
       </c>
@@ -13225,7 +13224,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>42278</v>
       </c>
@@ -13249,7 +13248,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42309</v>
       </c>
@@ -13273,7 +13272,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>42339</v>
       </c>
@@ -13297,7 +13296,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="48" t="s">
         <v>145</v>
       </c>
@@ -13315,7 +13314,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42370</v>
       </c>
@@ -13339,7 +13338,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42401</v>
       </c>
@@ -13363,7 +13362,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>299</v>
@@ -13383,7 +13382,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="49"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42430</v>
       </c>
@@ -13409,7 +13408,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -13429,7 +13428,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>300</v>
@@ -13449,7 +13448,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>42461</v>
       </c>
@@ -13473,7 +13472,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42491</v>
       </c>
@@ -13499,7 +13498,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>303</v>
@@ -13519,7 +13518,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42522</v>
       </c>
@@ -13543,7 +13542,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>42552</v>
       </c>
@@ -13567,7 +13566,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42583</v>
       </c>
@@ -13591,7 +13590,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>42614</v>
       </c>
@@ -13615,7 +13614,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42644</v>
       </c>
@@ -13639,7 +13638,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42675</v>
       </c>
@@ -13665,7 +13664,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>308</v>
@@ -13685,7 +13684,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>42705</v>
       </c>
@@ -13709,7 +13708,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>309</v>
@@ -13729,7 +13728,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
         <v>146</v>
       </c>
@@ -13747,7 +13746,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>42736</v>
       </c>
@@ -13771,7 +13770,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>74</v>
@@ -13793,7 +13792,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -13815,7 +13814,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>312</v>
@@ -13835,7 +13834,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="49"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42767</v>
       </c>
@@ -13859,7 +13858,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42795</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>314</v>
@@ -13905,7 +13904,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42826</v>
       </c>
@@ -13929,7 +13928,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42856</v>
       </c>
@@ -13955,7 +13954,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>47</v>
@@ -13977,7 +13976,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>47</v>
@@ -13999,7 +13998,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>316</v>
@@ -14019,7 +14018,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42887</v>
       </c>
@@ -14043,7 +14042,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>42917</v>
       </c>
@@ -14067,7 +14066,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42948</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>47</v>
@@ -14115,7 +14114,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>319</v>
@@ -14135,7 +14134,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="49"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42979</v>
       </c>
@@ -14159,7 +14158,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43009</v>
       </c>
@@ -14183,7 +14182,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43040</v>
       </c>
@@ -14203,7 +14202,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43070</v>
       </c>
@@ -14227,7 +14226,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="48" t="s">
         <v>147</v>
       </c>
@@ -14245,7 +14244,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43101</v>
       </c>
@@ -14269,7 +14268,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43132</v>
       </c>
@@ -14289,7 +14288,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43160</v>
       </c>
@@ -14313,7 +14312,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43191</v>
       </c>
@@ -14333,7 +14332,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43221</v>
       </c>
@@ -14357,7 +14356,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>321</v>
@@ -14377,7 +14376,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43252</v>
       </c>
@@ -14401,7 +14400,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43282</v>
       </c>
@@ -14427,7 +14426,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>324</v>
@@ -14447,7 +14446,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43313</v>
       </c>
@@ -14471,7 +14470,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43344</v>
       </c>
@@ -14495,7 +14494,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>328</v>
@@ -14515,7 +14514,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43374</v>
       </c>
@@ -14539,7 +14538,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43405</v>
       </c>
@@ -14563,7 +14562,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43435</v>
       </c>
@@ -14587,7 +14586,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>333</v>
@@ -14607,7 +14606,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>47</v>
@@ -14629,7 +14628,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="48" t="s">
         <v>148</v>
       </c>
@@ -14647,7 +14646,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43466</v>
       </c>
@@ -14671,7 +14670,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>99</v>
@@ -14691,7 +14690,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43497</v>
       </c>
@@ -14713,7 +14712,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>335</v>
@@ -14733,7 +14732,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43525</v>
       </c>
@@ -14757,7 +14756,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43556</v>
       </c>
@@ -14783,7 +14782,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>337</v>
@@ -14803,7 +14802,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43586</v>
       </c>
@@ -14823,7 +14822,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43617</v>
       </c>
@@ -14849,7 +14848,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>335</v>
@@ -14869,7 +14868,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43647</v>
       </c>
@@ -14893,7 +14892,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43678</v>
       </c>
@@ -14917,7 +14916,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43709</v>
       </c>
@@ -14941,7 +14940,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43739</v>
       </c>
@@ -14965,7 +14964,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43770</v>
       </c>
@@ -14989,7 +14988,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43800</v>
       </c>
@@ -15015,7 +15014,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>289</v>
@@ -15035,7 +15034,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>344</v>
@@ -15055,7 +15054,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>330</v>
       </c>
@@ -15073,7 +15072,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43831</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>47</v>
@@ -15119,7 +15118,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43862</v>
       </c>
@@ -15139,7 +15138,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43891</v>
       </c>
@@ -15159,7 +15158,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43922</v>
       </c>
@@ -15179,7 +15178,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43952</v>
       </c>
@@ -15199,7 +15198,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43983</v>
       </c>
@@ -15219,7 +15218,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44013</v>
       </c>
@@ -15239,7 +15238,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44044</v>
       </c>
@@ -15259,7 +15258,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44075</v>
       </c>
@@ -15279,7 +15278,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44105</v>
       </c>
@@ -15299,7 +15298,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44136</v>
       </c>
@@ -15319,7 +15318,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44166</v>
       </c>
@@ -15343,7 +15342,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
         <v>331</v>
       </c>
@@ -15361,7 +15360,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44197</v>
       </c>
@@ -15381,7 +15380,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44228</v>
       </c>
@@ -15401,7 +15400,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44256</v>
       </c>
@@ -15421,7 +15420,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44287</v>
       </c>
@@ -15441,7 +15440,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44317</v>
       </c>
@@ -15461,7 +15460,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44348</v>
       </c>
@@ -15481,7 +15480,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44378</v>
       </c>
@@ -15501,7 +15500,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44409</v>
       </c>
@@ -15521,7 +15520,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44440</v>
       </c>
@@ -15541,7 +15540,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44470</v>
       </c>
@@ -15561,7 +15560,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44501</v>
       </c>
@@ -15581,7 +15580,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44531</v>
       </c>
@@ -15605,7 +15604,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="48" t="s">
         <v>332</v>
       </c>
@@ -15623,7 +15622,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44562</v>
       </c>
@@ -15643,7 +15642,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44593</v>
       </c>
@@ -15663,7 +15662,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44621</v>
       </c>
@@ -15683,7 +15682,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44652</v>
       </c>
@@ -15707,7 +15706,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44682</v>
       </c>
@@ -15727,7 +15726,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44713</v>
       </c>
@@ -15747,7 +15746,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44743</v>
       </c>
@@ -15767,7 +15766,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44774</v>
       </c>
@@ -15787,7 +15786,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44805</v>
       </c>
@@ -15811,7 +15810,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44835</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44866</v>
       </c>
@@ -15855,7 +15854,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44896</v>
       </c>
@@ -15879,7 +15878,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>54</v>
@@ -15899,7 +15898,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="48" t="s">
         <v>348</v>
       </c>
@@ -15917,7 +15916,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44927</v>
       </c>
@@ -15941,7 +15940,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>47</v>
@@ -15963,7 +15962,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44958</v>
       </c>
@@ -15983,7 +15982,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44986</v>
       </c>
@@ -16003,7 +16002,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45017</v>
       </c>
@@ -16023,7 +16022,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45047</v>
       </c>
@@ -16043,7 +16042,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45078</v>
       </c>
@@ -16063,7 +16062,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45108</v>
       </c>
@@ -16085,11 +16084,11 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A548" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B548" s="20"/>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" s="40"/>
+      <c r="B548" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
       <c r="E548" s="9"/>
@@ -16098,14 +16097,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H548" s="39"/>
+      <c r="H548" s="39">
+        <v>1</v>
+      </c>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
-    </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K548" s="49">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16121,9 +16124,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16139,9 +16142,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16157,9 +16160,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16175,9 +16178,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16193,9 +16196,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16211,9 +16214,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16229,9 +16232,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16247,9 +16250,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16265,9 +16268,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16283,8 +16286,10 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A559" s="40"/>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="40">
+        <v>45444</v>
+      </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
@@ -16299,21 +16304,37 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A560" s="41"/>
-      <c r="B560" s="15"/>
-      <c r="C560" s="42"/>
-      <c r="D560" s="43"/>
-      <c r="E560" s="51"/>
-      <c r="F560" s="15"/>
-      <c r="G560" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H560" s="43"/>
-      <c r="I560" s="51"/>
-      <c r="J560" s="12"/>
-      <c r="K560" s="15"/>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="40"/>
+      <c r="B560" s="20"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="39"/>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="41"/>
+      <c r="B561" s="15"/>
+      <c r="C561" s="42"/>
+      <c r="D561" s="43"/>
+      <c r="E561" s="51"/>
+      <c r="F561" s="15"/>
+      <c r="G561" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="43"/>
+      <c r="I561" s="51"/>
+      <c r="J561" s="12"/>
+      <c r="K561" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16330,10 +16351,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16356,7 +16377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16364,21 +16385,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16391,7 +16412,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16420,7 +16441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>6.9580000000000002</v>
       </c>
@@ -16446,17 +16467,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16477,7 +16498,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16504,7 +16525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16530,7 +16551,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16556,7 +16577,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16582,7 +16603,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16608,7 +16629,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16634,7 +16655,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16660,7 +16681,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16686,7 +16707,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16706,7 +16727,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16726,7 +16747,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16746,7 +16767,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16767,7 +16788,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16788,7 +16809,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16809,7 +16830,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16830,7 +16851,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16851,7 +16872,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16872,7 +16893,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16893,7 +16914,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16914,7 +16935,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16935,7 +16956,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16956,7 +16977,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16977,7 +16998,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16998,7 +17019,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17019,7 +17040,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17040,7 +17061,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17061,7 +17082,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17082,7 +17103,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17103,7 +17124,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17124,7 +17145,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17145,7 +17166,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17166,7 +17187,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17175,7 +17196,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17184,7 +17205,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17193,7 +17214,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17202,7 +17223,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17211,7 +17232,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17220,7 +17241,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17229,7 +17250,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17238,7 +17259,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17247,7 +17268,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17256,7 +17277,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17265,7 +17286,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17274,7 +17295,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17283,7 +17304,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17292,7 +17313,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17301,7 +17322,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17310,7 +17331,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17319,7 +17340,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17328,7 +17349,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17337,7 +17358,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17346,7 +17367,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17355,7 +17376,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17364,7 +17385,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17373,7 +17394,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17382,7 +17403,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17391,7 +17412,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17400,7 +17421,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17409,7 +17430,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17418,7 +17439,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17427,7 +17448,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/OCAMPO, ORLANDO.xlsx
+++ b/REGULAR/OJT/OCAMPO, ORLANDO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1976,7 +1976,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2019,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2083,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2143,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2209,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2272,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2370,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2429,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2494,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2537,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2612,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2798,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2864,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2922,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +2988,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3044,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3119,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3162,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3228,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +3284,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3382,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3445,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3894,7 +3894,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A539" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="I548" sqref="I548"/>
+      <selection pane="bottomLeft" activeCell="I549" sqref="I549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,7 +4057,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.448999999999984</v>
+        <v>56.698999999999984</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4067,7 +4067,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.24799999999999</v>
+        <v>134.49799999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12005,7 +12005,7 @@
       <c r="D363" s="39"/>
       <c r="E363" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.448999999999984</v>
+        <v>56.698999999999984</v>
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="13" t="str">
@@ -12015,7 +12015,7 @@
       <c r="H363" s="39"/>
       <c r="I363" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.24799999999999</v>
+        <v>134.49799999999999</v>
       </c>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
@@ -16069,13 +16069,15 @@
       <c r="B547" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C547" s="13"/>
+      <c r="C547" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D547" s="39"/>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
@@ -16110,7 +16112,9 @@
       <c r="A549" s="40">
         <v>45139</v>
       </c>
-      <c r="B549" s="20"/>
+      <c r="B549" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
@@ -16119,10 +16123,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H549" s="39"/>
+      <c r="H549" s="39">
+        <v>1</v>
+      </c>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20"/>
+      <c r="K549" s="49">
+        <v>45141</v>
+      </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
